--- a/hw1_table.xlsx
+++ b/hw1_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSLow\CLionProjects\vcl-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9182A2-4A1B-4642-99BD-8348B1CD2697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A62BA-C7E4-41A3-8441-08B37BA799FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,6 +643,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -693,26 +718,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -910,26 +925,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1127,26 +1132,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1344,26 +1339,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1561,26 +1546,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1778,26 +1753,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1995,30 +1960,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2216,30 +2169,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2437,30 +2378,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2658,30 +2587,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2879,30 +2796,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3100,30 +3005,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3321,32 +3214,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3544,32 +3424,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3767,32 +3634,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3990,32 +3844,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -4213,32 +4054,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5187,10 +5015,10 @@
       <xdr:rowOff>29779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>446689</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>192689</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17518</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5517,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
